--- a/DataProvider.xlsx
+++ b/DataProvider.xlsx
@@ -4,56 +4,312 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="17016" windowHeight="9552" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:Q31"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>TYSS</t>
-  </si>
-  <si>
-    <t>TESTYANTRa</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Developing</t>
-  </si>
-  <si>
-    <t>Foyr</t>
-  </si>
-  <si>
-    <t>Interior</t>
-  </si>
-  <si>
-    <t>Capgemini</t>
-  </si>
-  <si>
-    <t>ecommerce</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>Designing</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>…None….</t>
+  </si>
+  <si>
+    <t>Apparel</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Acquired</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Competitor</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Market Falled</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Integrator</t>
+  </si>
+  <si>
+    <t>Project Cancelled</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>Shutdown</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Press</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Reseller</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Entertainement</t>
+  </si>
+  <si>
+    <t>Environement</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Food&amp;Bevarage</t>
+  </si>
+  <si>
+    <t>Governement</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Not For Profit</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Search Dropdown</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Organizatio No</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Billing City</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>TY_SDET_1</t>
+  </si>
+  <si>
+    <t>TY_SDET_2</t>
+  </si>
+  <si>
+    <t>TY_SDET_3</t>
+  </si>
+  <si>
+    <t>TY_SDET_4</t>
+  </si>
+  <si>
+    <t>TY_SDET_5</t>
+  </si>
+  <si>
+    <t>TY_SDET_6</t>
+  </si>
+  <si>
+    <t>TY_SDET_7</t>
+  </si>
+  <si>
+    <t>TY_SDET_8</t>
+  </si>
+  <si>
+    <t>TY_SDET_9</t>
+  </si>
+  <si>
+    <t>TY_SDET_10</t>
+  </si>
+  <si>
+    <t>TY_SDET_11</t>
+  </si>
+  <si>
+    <t>TY_SDET_12</t>
+  </si>
+  <si>
+    <t>TY_SDET_13</t>
+  </si>
+  <si>
+    <t>TY_SDET_14</t>
+  </si>
+  <si>
+    <t>TY_SDET_15</t>
+  </si>
+  <si>
+    <t>TY_SDET_16</t>
+  </si>
+  <si>
+    <t>TY_SDET_17</t>
+  </si>
+  <si>
+    <t>TY_SDET_18</t>
+  </si>
+  <si>
+    <t>TY_SDET_19</t>
+  </si>
+  <si>
+    <t>TY_SDET_20</t>
+  </si>
+  <si>
+    <t>TY_SDET_21</t>
+  </si>
+  <si>
+    <t>TY_SDET_22</t>
+  </si>
+  <si>
+    <t>TY_SDET_23</t>
+  </si>
+  <si>
+    <t>TY_SDET_24</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>MAA</t>
+  </si>
+  <si>
+    <t>PNQ</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>BNK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,8 +337,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -388,44 +645,231 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -435,24 +879,276 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>